--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn3-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn3-Ednra.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H2">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N2">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q2">
-        <v>7.663585105515333</v>
+        <v>6.082193835308222</v>
       </c>
       <c r="R2">
-        <v>68.97226594963799</v>
+        <v>54.739744517774</v>
       </c>
       <c r="S2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="T2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H3">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>81.076077</v>
       </c>
       <c r="O3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q3">
-        <v>167.032879784682</v>
+        <v>209.086031977846</v>
       </c>
       <c r="R3">
-        <v>1503.295918062138</v>
+        <v>1881.774287800614</v>
       </c>
       <c r="S3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="T3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H4">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N4">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q4">
-        <v>91.710265710974</v>
+        <v>148.7354393603329</v>
       </c>
       <c r="R4">
-        <v>825.392391398766</v>
+        <v>1338.618954242996</v>
       </c>
       <c r="S4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="T4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.180598</v>
+        <v>7.736660666666666</v>
       </c>
       <c r="H5">
-        <v>18.541794</v>
+        <v>23.209982</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N5">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q5">
-        <v>0.313714793284</v>
+        <v>0.56191366422</v>
       </c>
       <c r="R5">
-        <v>2.823433139556</v>
+        <v>5.05722297798</v>
       </c>
       <c r="S5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="T5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
     </row>
   </sheetData>
